--- a/medicine/Mort/Peine_de_mort_en_Alabama/Peine_de_mort_en_Alabama.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Alabama/Peine_de_mort_en_Alabama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Alabama, la pendaison fut en usage jusqu'en 1927, année où la chaise électrique devint la seule méthode d'exécution autorisée par l'État. Elle le restera jusqu'en 2002, faisant ainsi de l'Alabama la dernière juridiction à avoir électrocuté un condamné à mort sans lui avoir laissé le choix d'une méthode d'exécution alternative. En 2024, l'Alabama devint également la première juridiction à avoir exécuté un condamné à mort par inhalation forcée d'azote, une méthode d'exécution adoptée en 2018 (initialement au cas où l'État ne parvenait plus à se fournir en produits pour les injections létales) mais qui n'avait jamais été utilisée jusque-là[1].
-Depuis son entrée dans l'Union en 1819, l'Alabama a exécuté 762 condamnés à mort : 579 par pendaison, 134 par électrocution, 48 par injection létale et 1 par inhalation forcée d'azote[2],[3],[4],[5],[6]. 
-Jusqu'en 2017[7], l'Alabama était le seul État des États-Unis qui autorisait ses juges à prononcer une condamnation à mort contre l'avis majoritaire ou unanime du jury (une pratique que l'on nomme judicial override (en) en anglais). Ainsi, en 2011, 41 des 199 condamnés à mort en attente de leur exécution l'avaient été contre l'avis du jury[8].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Alabama, la pendaison fut en usage jusqu'en 1927, année où la chaise électrique devint la seule méthode d'exécution autorisée par l'État. Elle le restera jusqu'en 2002, faisant ainsi de l'Alabama la dernière juridiction à avoir électrocuté un condamné à mort sans lui avoir laissé le choix d'une méthode d'exécution alternative. En 2024, l'Alabama devint également la première juridiction à avoir exécuté un condamné à mort par inhalation forcée d'azote, une méthode d'exécution adoptée en 2018 (initialement au cas où l'État ne parvenait plus à se fournir en produits pour les injections létales) mais qui n'avait jamais été utilisée jusque-là.
+Depuis son entrée dans l'Union en 1819, l'Alabama a exécuté 762 condamnés à mort : 579 par pendaison, 134 par électrocution, 48 par injection létale et 1 par inhalation forcée d'azote. 
+Jusqu'en 2017, l'Alabama était le seul État des États-Unis qui autorisait ses juges à prononcer une condamnation à mort contre l'avis majoritaire ou unanime du jury (une pratique que l'on nomme judicial override (en) en anglais). Ainsi, en 2011, 41 des 199 condamnés à mort en attente de leur exécution l'avaient été contre l'avis du jury.  
 Les exécutions ont lieu à une date fixée par la Cour suprême de l'État (en). Le gouverneur dispose d'un pouvoir exclusif de grâce.
 </t>
         </is>
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,11 +556,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exécutions par décennie
-Exécutions depuis 1976
-Les exécutions ont lieu une minute après minuit à Atmore dans le centre correctionnel de Holman (en)
-En janvier 2024, le couloir de la mort de l'Alabama compte 164 condamnés dont 5 femmes[9],[10],[11],[12]. 
-Depuis 1976, sept condamnés à mort (dont les célèbres Walter McMillian et Anthony Ray Hinton) ont été disculpés en Alabama[13] et une (Judith Ann Adams Neelley (en)) a vu sa peine commuée par le gouverneur[14],[15].
+          <t>Exécutions depuis 1976</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les exécutions ont lieu une minute après minuit à Atmore dans le centre correctionnel de Holman (en)
+En janvier 2024, le couloir de la mort de l'Alabama compte 164 condamnés dont 5 femmes. 
+Depuis 1976, sept condamnés à mort (dont les célèbres Walter McMillian et Anthony Ray Hinton) ont été disculpés en Alabama et une (Judith Ann Adams Neelley (en)) a vu sa peine commuée par le gouverneur,.
 </t>
         </is>
       </c>
